--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305FC05F-C658-4342-9329-4294D2874F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8977D-2591-48C1-AF47-32C38D9AAAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,61 +602,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>99614</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>30153</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E681C30-598B-4EF2-A78B-0EC15F43C2D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="147239" y="457200"/>
-          <a:ext cx="11520885" cy="9202728"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5507,6 +5452,5 @@
   <headerFooter>
     <oddFooter>&amp;LSolid Communication Inc.&amp;R&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8977D-2591-48C1-AF47-32C38D9AAAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4140C-FDF1-48AA-8B16-A02610DF3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,6 +604,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F5B72F-C7F4-4B9D-B4B9-E8C9204FA12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="281548"/>
+          <a:ext cx="9620249" cy="6147827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -870,7 +925,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+      <selection activeCell="CM11" sqref="CM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5452,5 +5507,6 @@
   <headerFooter>
     <oddFooter>&amp;LSolid Communication Inc.&amp;R&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D4140C-FDF1-48AA-8B16-A02610DF3C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B16FD-B67E-499F-985A-CEEB4FE81FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CM11" sqref="CM11"/>
+      <selection activeCell="CM10" sqref="CM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B16FD-B67E-499F-985A-CEEB4FE81FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E03EE4-C04A-405F-A35B-F7A3A3E0AA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,54 +606,1185 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52948</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F5B72F-C7F4-4B9D-B4B9-E8C9204FA12B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C4FE9B-56E7-4C20-8352-C79DD0BECCBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="1085850"/>
+          <a:ext cx="1914525" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>index</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ウェルカムページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED65E2E3-706F-4460-AD9C-2C09F5780E8E}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2028825" y="2447925"/>
+          <a:ext cx="19050" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6A5A6B-6CFC-45FE-83C6-D145D337FDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="281548"/>
-          <a:ext cx="9620249" cy="6147827"/>
+          <a:off x="1123950" y="4972050"/>
+          <a:ext cx="1914525" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>error</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>エラーページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="コネクタ: カギ線 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8B540B-44F4-4457-8956-3F8FEEE2AC4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="447676" y="1952626"/>
+          <a:ext cx="676275" cy="3643313"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C8FA8D-6A47-4479-A9F5-E16C0BA173E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="1809750"/>
+          <a:ext cx="685800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E979C3F3-3E35-45E5-85CB-FD5EB90C6231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="3438525"/>
+          <a:ext cx="1276350" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力値にエラー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B3070E-368A-49F6-945C-BFFF6FA1D49B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="3676650"/>
+          <a:ext cx="857250" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03746936-DEEE-4262-B8EC-F47CA9691F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2047875" y="1809750"/>
+          <a:ext cx="2190750" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10AF9931-8D44-48ED-8BC9-73F4B9E561C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="1133475"/>
+          <a:ext cx="1914525" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>quiz</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>問題回答画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4E27B6-D909-45CE-8D86-82E607AF6BBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="1114425"/>
+          <a:ext cx="1914525" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>result</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>結果表示画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F08335C-684A-42FF-B82A-96932F23F433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="1757363"/>
+          <a:ext cx="1828800" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4B741F-5704-4E0C-9C0F-EA1A24752DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5253038" y="1771650"/>
+          <a:ext cx="2138362" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5791"/>
+            <a:gd name="adj2" fmla="val 382813"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4893973A-D90F-4C03-8549-FF937FC94729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="1571625"/>
+          <a:ext cx="990600" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未回答無</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A785DC8-D6B0-458B-B0B9-BE833B13A953}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724526" y="3952875"/>
+          <a:ext cx="1066799" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未回答問題有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EED916-F0CD-4561-AA14-DBF577C06129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="2533650"/>
+          <a:ext cx="847725" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラーなし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCC43D0-CB1A-4640-BB71-7BC17992010E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8734425" y="647700"/>
+          <a:ext cx="19050" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B751AD0-8901-4369-B419-AAC194AFF71D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1962150" y="666749"/>
+          <a:ext cx="6686550" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C33169-688D-4259-B064-5B330320C285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1924050" y="685800"/>
+          <a:ext cx="66675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7C092D-0D2A-47D5-AC9E-649B2E491110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981451" y="590550"/>
+          <a:ext cx="895350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -925,7 +2056,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CM10" sqref="CM10"/>
+      <selection activeCell="AQ26" sqref="AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E03EE4-C04A-405F-A35B-F7A3A3E0AA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D482ED-24DA-4ABD-AC3C-073C36679095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,18 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2.画面遷移図'!$1:$3</definedName>
     <definedName name="Print_Titles_0" localSheetId="0">'2.画面遷移図'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -677,246 +688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED65E2E3-706F-4460-AD9C-2C09F5780E8E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2028825" y="2447925"/>
-          <a:ext cx="19050" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6A5A6B-6CFC-45FE-83C6-D145D337FDB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1123950" y="4972050"/>
-          <a:ext cx="1914525" cy="1247775"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>error</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>エラーページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>52389</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="コネクタ: カギ線 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8B540B-44F4-4457-8956-3F8FEEE2AC4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="447676" y="1952626"/>
-          <a:ext cx="676275" cy="3643313"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C8FA8D-6A47-4479-A9F5-E16C0BA173E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="1809750"/>
-          <a:ext cx="685800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -931,7 +712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="3438525"/>
+          <a:off x="1390650" y="3314700"/>
           <a:ext cx="1276350" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -974,129 +755,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B3070E-368A-49F6-945C-BFFF6FA1D49B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="142875" y="3676650"/>
-          <a:ext cx="857250" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻るボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03746936-DEEE-4262-B8EC-F47CA9691F91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2047875" y="1809750"/>
-          <a:ext cx="2190750" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1490,16 +1148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1514,7 +1172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2809875" y="2533650"/>
+          <a:off x="3181350" y="1666875"/>
           <a:ext cx="847725" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1787,6 +1445,170 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CE6A59-8545-44D8-9A44-F9DC94B4730D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1638302" y="3448047"/>
+          <a:ext cx="2276476" cy="28580"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="コネクタ: カギ線 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D52D708-6128-4EF6-A28B-A04BA81D65DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="847725" y="2590803"/>
+          <a:ext cx="2257427" cy="1647824"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B867F3E-540E-4B40-8924-AD2FE2EFCE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="1709738"/>
+          <a:ext cx="1295400" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2056,7 +1878,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ26" sqref="AQ26"/>
+      <selection activeCell="CN8" sqref="CN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D482ED-24DA-4ABD-AC3C-073C36679095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D0813-66AB-4B7B-8B3C-AD2FCA7170EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,16 +1324,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1347,9 +1347,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1924050" y="685800"/>
-          <a:ext cx="66675" cy="428625"/>
+        <a:xfrm>
+          <a:off x="1990726" y="685800"/>
+          <a:ext cx="9524" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1447,114 +1447,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>5</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CE6A59-8545-44D8-9A44-F9DC94B4730D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1638302" y="3448047"/>
-          <a:ext cx="2276476" cy="28580"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="コネクタ: カギ線 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D52D708-6128-4EF6-A28B-A04BA81D65DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="847725" y="2590803"/>
-          <a:ext cx="2257427" cy="1647824"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -1586,6 +1478,113 @@
           <a:ext cx="1295400" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA98EE5D-666A-46B3-AB30-7E3B36EE69C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2159794" y="2878931"/>
+          <a:ext cx="1071563" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185739</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1286E835-4CC3-40D0-B032-52DB11F59D36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1247776" y="2314576"/>
+          <a:ext cx="142875" cy="1128713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1878,7 +1877,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="CN8" sqref="CN8"/>
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D0813-66AB-4B7B-8B3C-AD2FCA7170EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16C7A96-1274-4874-AAF7-01A6CB5EA937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1523,9 +1523,7 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="16" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
@@ -1877,7 +1875,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
+++ b/YSteam開発資料まとめ/設計書9日までに/products/画面設計書_2_画面遷移図_sono.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計書9日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16C7A96-1274-4874-AAF7-01A6CB5EA937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AE8C7F-6AE4-4530-8303-E4DFA00FE8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>システム名</t>
   </si>
@@ -96,6 +96,13 @@
   </si>
   <si>
     <t>https://whimsical.com/E3WQCrTnBu8YK7AqNuRVBf</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>苑</t>
+    <rPh sb="0" eb="1">
+      <t>ソノ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1149,13 +1156,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1172,7 +1179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="1666875"/>
+          <a:off x="3143250" y="1666875"/>
           <a:ext cx="847725" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1449,14 +1456,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1469,13 +1476,12 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3000375" y="1709738"/>
-          <a:ext cx="1295400" cy="47625"/>
+        <a:xfrm flipV="1">
+          <a:off x="3000375" y="1628776"/>
+          <a:ext cx="1266825" cy="80962"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1604,6 +1610,233 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E5A44B-9836-4812-9933-F87667E8E535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="2409825"/>
+          <a:ext cx="9525" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58FDB10-E365-47F7-861F-70380A88F47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2867025" y="3152775"/>
+          <a:ext cx="1800225" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D0AEF0-81F7-4F9A-9D0C-3E53C3A35070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2867025" y="2324100"/>
+          <a:ext cx="38100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F3EF9-861B-402C-9652-C479EE3036BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="3009901"/>
+          <a:ext cx="866775" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻るボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1875,7 +2108,7 @@
   <dimension ref="A1:AMK44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="BP3" sqref="BP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1962,7 +2195,9 @@
       <c r="BM1" s="32"/>
       <c r="BN1" s="32"/>
       <c r="BO1" s="32"/>
-      <c r="BP1" s="33"/>
+      <c r="BP1" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="BQ1" s="33"/>
       <c r="BR1" s="33"/>
       <c r="BS1" s="33"/>
@@ -2998,7 +3233,9 @@
       <c r="BM2" s="25"/>
       <c r="BN2" s="25"/>
       <c r="BO2" s="25"/>
-      <c r="BP2" s="26"/>
+      <c r="BP2" s="26">
+        <v>44510</v>
+      </c>
       <c r="BQ2" s="26"/>
       <c r="BR2" s="26"/>
       <c r="BS2" s="26"/>
